--- a/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosProyecto1.xlsx
+++ b/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosProyecto1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">dfsdf</t>
   </si>
   <si>
-    <t xml:space="preserve">ASSISTENTE</t>
+    <t xml:space="preserve">ASISTENTE</t>
   </si>
   <si>
     <t xml:space="preserve">3-3333-3333</t>
@@ -130,6 +130,24 @@
     <t xml:space="preserve">qweqqqq</t>
   </si>
   <si>
+    <t xml:space="preserve">1-1670-0598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ariana Bermudez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bermudezari@yahoo.es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60990312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPERUSUARIO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Codigo</t>
   </si>
   <si>
@@ -218,108 +236,6 @@
   </si>
   <si>
     <t xml:space="preserve">B3-07</t>
-  </si>
-  <si>
-    <t>1-1111-1111</t>
-  </si>
-  <si>
-    <t>Ericka Solano Fernández</t>
-  </si>
-  <si>
-    <t>ersolano@itcr.ac.cr</t>
-  </si>
-  <si>
-    <t>8111-1111</t>
-  </si>
-  <si>
-    <t>masm</t>
-  </si>
-  <si>
-    <t>COORDINADOR</t>
-  </si>
-  <si>
-    <t>2-2222-2222</t>
-  </si>
-  <si>
-    <t>Alicia Salazar Hernández</t>
-  </si>
-  <si>
-    <t>asalazar@itcr.ac.cr</t>
-  </si>
-  <si>
-    <t>8222-2222</t>
-  </si>
-  <si>
-    <t>dfsdf</t>
-  </si>
-  <si>
-    <t>3-3333-3333</t>
-  </si>
-  <si>
-    <t>Saúl Calderón Ramírez</t>
-  </si>
-  <si>
-    <t>sacalderon@itcr.ac.cr</t>
-  </si>
-  <si>
-    <t>8333-3333</t>
-  </si>
-  <si>
-    <t>erew</t>
-  </si>
-  <si>
-    <t>PROFESOR</t>
-  </si>
-  <si>
-    <t>4-4444-4444</t>
-  </si>
-  <si>
-    <t>Franco Quirós Ramírez</t>
-  </si>
-  <si>
-    <t>fquiros@itcr.ac.cr</t>
-  </si>
-  <si>
-    <t>8444-4444</t>
-  </si>
-  <si>
-    <t>qwkqe</t>
-  </si>
-  <si>
-    <t>DIRECTOR</t>
-  </si>
-  <si>
-    <t>5-5555-5555</t>
-  </si>
-  <si>
-    <t>Ivannia Cerdas Quesada</t>
-  </si>
-  <si>
-    <t>iquesada@itcr.ac.cr</t>
-  </si>
-  <si>
-    <t>8555-5555</t>
-  </si>
-  <si>
-    <t>qweqqqq</t>
-  </si>
-  <si>
-    <t>1-1670-0598</t>
-  </si>
-  <si>
-    <t>Ariana Bermudez</t>
-  </si>
-  <si>
-    <t>bermudezari@yahoo.es</t>
-  </si>
-  <si>
-    <t>60990312</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>SUPERUSUARIO</t>
   </si>
 </sst>
 </file>
@@ -329,7 +245,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -351,14 +267,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -386,7 +294,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -410,93 +318,29 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0563C1"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -505,18 +349,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="11.6071428571429" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="23.0816326530612" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="20.5204081632653" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="10.530612244898" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -539,113 +383,133 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" t="s">
-        <v>98</v>
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="ersolano@itcr.ac.cr"/>
-    <hyperlink ref="C3" r:id="rId2" display="asalazar@itcr.ac.cr"/>
-    <hyperlink ref="C4" r:id="rId3" display="sacalderon@itcr.ac.cr"/>
-    <hyperlink ref="C5" r:id="rId4" display="fquiros@itcr.ac.cr"/>
-    <hyperlink ref="C6" r:id="rId5" display="iquesada@itcr.ac.cr"/>
+    <hyperlink ref="C4" r:id="rId2" display="sacalderon@itcr.ac.cr"/>
+    <hyperlink ref="C5" r:id="rId3" display="fquiros@itcr.ac.cr"/>
+    <hyperlink ref="C6" r:id="rId4" display="iquesada@itcr.ac.cr"/>
+    <hyperlink ref="C7" r:id="rId5" display="bermudezari@yahoo.es"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -670,28 +534,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="10.530612244898" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="25.1071428571429" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="10.530612244898" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>3</v>
@@ -699,10 +563,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3</v>
@@ -710,10 +574,10 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>4</v>
@@ -721,10 +585,10 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>4</v>
@@ -732,10 +596,10 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>4</v>
@@ -765,23 +629,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="14.4438775510204" collapsed="true"/>
-    <col min="2" max="1025" hidden="false" style="0" width="10.530612244898" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -808,37 +672,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" hidden="false" style="0" width="10.530612244898" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="14.0408163265306" collapsed="true"/>
-    <col min="6" max="1025" hidden="false" style="0" width="10.530612244898" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -847,18 +711,18 @@
         <v>30</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -867,18 +731,18 @@
         <v>30</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -887,18 +751,18 @@
         <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2</v>
@@ -907,18 +771,18 @@
         <v>24</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -927,18 +791,18 @@
         <v>12</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -947,18 +811,18 @@
         <v>6</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2</v>
@@ -967,10 +831,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosProyecto1.xlsx
+++ b/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosProyecto1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="PROFESORES" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">dfsdf</t>
   </si>
   <si>
-    <t xml:space="preserve">ASISTENTE</t>
+    <t xml:space="preserve">DIRECTOR</t>
   </si>
   <si>
     <t xml:space="preserve">3-3333-3333</t>
@@ -94,9 +94,6 @@
     <t xml:space="preserve">erew</t>
   </si>
   <si>
-    <t xml:space="preserve">PROFESOR</t>
-  </si>
-  <si>
     <t xml:space="preserve">4-4444-4444</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t xml:space="preserve">qwkqe</t>
   </si>
   <si>
-    <t xml:space="preserve">DIRECTOR</t>
-  </si>
-  <si>
     <t xml:space="preserve">5-5555-5555</t>
   </si>
   <si>
@@ -130,19 +124,13 @@
     <t xml:space="preserve">qweqqqq</t>
   </si>
   <si>
-    <t xml:space="preserve">1-1670-0598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ariana Bermudez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bermudezari@yahoo.es</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60990312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
+    <t xml:space="preserve">super</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8666-6666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disenno</t>
   </si>
   <si>
     <t xml:space="preserve">SUPERUSUARIO</t>
@@ -236,6 +224,99 @@
   </si>
   <si>
     <t xml:space="preserve">B3-07</t>
+  </si>
+  <si>
+    <t>1-1111-1111</t>
+  </si>
+  <si>
+    <t>Ericka Solano Fernández</t>
+  </si>
+  <si>
+    <t>ersolano@itcr.ac.cr</t>
+  </si>
+  <si>
+    <t>8111-1111</t>
+  </si>
+  <si>
+    <t>masm</t>
+  </si>
+  <si>
+    <t>COORDINADOR</t>
+  </si>
+  <si>
+    <t>2-2222-2222</t>
+  </si>
+  <si>
+    <t>Alicia Salazar Hernández</t>
+  </si>
+  <si>
+    <t>asalazar@itcr.ac.cr</t>
+  </si>
+  <si>
+    <t>8222-2222</t>
+  </si>
+  <si>
+    <t>dfsdf</t>
+  </si>
+  <si>
+    <t>DIRECTOR</t>
+  </si>
+  <si>
+    <t>3-3333-3333</t>
+  </si>
+  <si>
+    <t>Saúl Calderón Ramírez</t>
+  </si>
+  <si>
+    <t>sacalderon@itcr.ac.cr</t>
+  </si>
+  <si>
+    <t>8333-3333</t>
+  </si>
+  <si>
+    <t>erew</t>
+  </si>
+  <si>
+    <t>4-4444-4444</t>
+  </si>
+  <si>
+    <t>Franco Quirós Ramírez</t>
+  </si>
+  <si>
+    <t>fquiros@itcr.ac.cr</t>
+  </si>
+  <si>
+    <t>8444-4444</t>
+  </si>
+  <si>
+    <t>qwkqe</t>
+  </si>
+  <si>
+    <t>5-5555-5555</t>
+  </si>
+  <si>
+    <t>Ivannia Cerdas Quesada</t>
+  </si>
+  <si>
+    <t>iquesada@itcr.ac.cr</t>
+  </si>
+  <si>
+    <t>8555-5555</t>
+  </si>
+  <si>
+    <t>qweqqqq</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>8666-6666</t>
+  </si>
+  <si>
+    <t>Disenno</t>
+  </si>
+  <si>
+    <t>SUPERUSUARIO</t>
   </si>
 </sst>
 </file>
@@ -245,7 +326,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -267,6 +348,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -294,7 +390,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -318,29 +414,97 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -349,18 +513,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.3928571428571"/>
+    <col min="1" max="1" hidden="false" style="0" width="12.3198380566802" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="24.1012145748988" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="21.3157894736842" collapsed="true"/>
+    <col min="4" max="1025" hidden="false" style="0" width="10.6032388663968" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -383,133 +547,134 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="ersolano@itcr.ac.cr"/>
-    <hyperlink ref="C4" r:id="rId2" display="sacalderon@itcr.ac.cr"/>
-    <hyperlink ref="C5" r:id="rId3" display="fquiros@itcr.ac.cr"/>
-    <hyperlink ref="C6" r:id="rId4" display="iquesada@itcr.ac.cr"/>
-    <hyperlink ref="C7" r:id="rId5" display="bermudezari@yahoo.es"/>
+    <hyperlink ref="C3" r:id="rId2" display="asalazar@itcr.ac.cr"/>
+    <hyperlink ref="C4" r:id="rId3" display="sacalderon@itcr.ac.cr"/>
+    <hyperlink ref="C5" r:id="rId4" display="fquiros@itcr.ac.cr"/>
+    <hyperlink ref="C6" r:id="rId5" display="iquesada@itcr.ac.cr"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -534,28 +699,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3928571428571"/>
+    <col min="1" max="1" hidden="false" style="0" width="10.6032388663968" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="25.9230769230769" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="10.6032388663968" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>3</v>
@@ -563,10 +728,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3</v>
@@ -574,10 +739,10 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>4</v>
@@ -585,10 +750,10 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>4</v>
@@ -596,10 +761,10 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>4</v>
@@ -608,7 +773,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -629,29 +794,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3928571428571"/>
+    <col min="1" max="1" hidden="false" style="0" width="15.2105263157895" collapsed="true"/>
+    <col min="2" max="1025" hidden="false" style="0" width="10.6032388663968" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -672,77 +837,77 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.3928571428571"/>
+    <col min="1" max="4" hidden="false" style="0" width="10.6032388663968" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="14.6761133603239" collapsed="true"/>
+    <col min="6" max="1025" hidden="false" style="0" width="10.6032388663968" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -751,38 +916,38 @@
         <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -791,18 +956,18 @@
         <v>12</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -811,18 +976,18 @@
         <v>6</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2</v>
@@ -831,16 +996,16 @@
         <v>6</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosProyecto1.xlsx
+++ b/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosProyecto1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="98">
   <si>
     <t xml:space="preserve">Id</t>
   </si>

--- a/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosProyecto1.xlsx
+++ b/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosProyecto1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="98">
   <si>
     <t xml:space="preserve">Id</t>
   </si>

--- a/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosProyecto1.xlsx
+++ b/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosProyecto1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="PROFESORES" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -94,6 +94,9 @@
     <t xml:space="preserve">erew</t>
   </si>
   <si>
+    <t xml:space="preserve">ASISTENTE</t>
+  </si>
+  <si>
     <t xml:space="preserve">4-4444-4444</t>
   </si>
   <si>
@@ -224,99 +227,6 @@
   </si>
   <si>
     <t xml:space="preserve">B3-07</t>
-  </si>
-  <si>
-    <t>1-1111-1111</t>
-  </si>
-  <si>
-    <t>Ericka Solano Fernández</t>
-  </si>
-  <si>
-    <t>ersolano@itcr.ac.cr</t>
-  </si>
-  <si>
-    <t>8111-1111</t>
-  </si>
-  <si>
-    <t>masm</t>
-  </si>
-  <si>
-    <t>COORDINADOR</t>
-  </si>
-  <si>
-    <t>2-2222-2222</t>
-  </si>
-  <si>
-    <t>Alicia Salazar Hernández</t>
-  </si>
-  <si>
-    <t>asalazar@itcr.ac.cr</t>
-  </si>
-  <si>
-    <t>8222-2222</t>
-  </si>
-  <si>
-    <t>dfsdf</t>
-  </si>
-  <si>
-    <t>DIRECTOR</t>
-  </si>
-  <si>
-    <t>3-3333-3333</t>
-  </si>
-  <si>
-    <t>Saúl Calderón Ramírez</t>
-  </si>
-  <si>
-    <t>sacalderon@itcr.ac.cr</t>
-  </si>
-  <si>
-    <t>8333-3333</t>
-  </si>
-  <si>
-    <t>erew</t>
-  </si>
-  <si>
-    <t>4-4444-4444</t>
-  </si>
-  <si>
-    <t>Franco Quirós Ramírez</t>
-  </si>
-  <si>
-    <t>fquiros@itcr.ac.cr</t>
-  </si>
-  <si>
-    <t>8444-4444</t>
-  </si>
-  <si>
-    <t>qwkqe</t>
-  </si>
-  <si>
-    <t>5-5555-5555</t>
-  </si>
-  <si>
-    <t>Ivannia Cerdas Quesada</t>
-  </si>
-  <si>
-    <t>iquesada@itcr.ac.cr</t>
-  </si>
-  <si>
-    <t>8555-5555</t>
-  </si>
-  <si>
-    <t>qweqqqq</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>8666-6666</t>
-  </si>
-  <si>
-    <t>Disenno</t>
-  </si>
-  <si>
-    <t>SUPERUSUARIO</t>
   </si>
 </sst>
 </file>
@@ -326,7 +236,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -349,29 +259,6 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -390,7 +277,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -414,97 +301,21 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0563C1"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -516,15 +327,15 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="12.3198380566802" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="24.1012145748988" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="21.3157894736842" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="10.6032388663968" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -547,124 +358,124 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" t="s">
-        <v>97</v>
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -699,28 +510,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="10.6032388663968" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="25.9230769230769" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="10.6032388663968" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>3</v>
@@ -728,10 +539,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3</v>
@@ -739,10 +550,10 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>4</v>
@@ -750,10 +561,10 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>4</v>
@@ -761,10 +572,10 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>4</v>
@@ -794,23 +605,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="15.2105263157895" collapsed="true"/>
-    <col min="2" max="1025" hidden="false" style="0" width="10.6032388663968" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -837,77 +648,77 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" hidden="false" style="0" width="10.6032388663968" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="14.6761133603239" collapsed="true"/>
-    <col min="6" max="1025" hidden="false" style="0" width="10.6032388663968" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -916,38 +727,38 @@
         <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -956,18 +767,18 @@
         <v>12</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -976,18 +787,18 @@
         <v>6</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2</v>
@@ -996,10 +807,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosProyecto1.xlsx
+++ b/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosProyecto1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="101">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -227,6 +227,105 @@
   </si>
   <si>
     <t xml:space="preserve">B3-07</t>
+  </si>
+  <si>
+    <t>1-1111-1111</t>
+  </si>
+  <si>
+    <t>Ericka Solano Fernández</t>
+  </si>
+  <si>
+    <t>ersolano@itcr.ac.cr</t>
+  </si>
+  <si>
+    <t>8111-1111</t>
+  </si>
+  <si>
+    <t>masm</t>
+  </si>
+  <si>
+    <t>COORDINADOR</t>
+  </si>
+  <si>
+    <t>2-2222-2222</t>
+  </si>
+  <si>
+    <t>Alicia Salazar Hernández</t>
+  </si>
+  <si>
+    <t>asalazar@itcr.ac.cr</t>
+  </si>
+  <si>
+    <t>8222-2222</t>
+  </si>
+  <si>
+    <t>dfsdf</t>
+  </si>
+  <si>
+    <t>DIRECTOR</t>
+  </si>
+  <si>
+    <t>3-3333-3333</t>
+  </si>
+  <si>
+    <t>Saúl Calderón Ramírez</t>
+  </si>
+  <si>
+    <t>sacalderon@itcr.ac.cr</t>
+  </si>
+  <si>
+    <t>8333-3333</t>
+  </si>
+  <si>
+    <t>erew</t>
+  </si>
+  <si>
+    <t>ASISTENTE</t>
+  </si>
+  <si>
+    <t>4-4444-4444</t>
+  </si>
+  <si>
+    <t>Franco Quirós Ramírez</t>
+  </si>
+  <si>
+    <t>fquiros@itcr.ac.cr</t>
+  </si>
+  <si>
+    <t>8444-4444</t>
+  </si>
+  <si>
+    <t>qwkqe</t>
+  </si>
+  <si>
+    <t>5-5555-5555</t>
+  </si>
+  <si>
+    <t>Ivannia Cerdas Quesada</t>
+  </si>
+  <si>
+    <t>iquesada@itcr.ac.cr</t>
+  </si>
+  <si>
+    <t>8555-5555</t>
+  </si>
+  <si>
+    <t>qweqqqq</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>8666-6666</t>
+  </si>
+  <si>
+    <t>Disenno</t>
+  </si>
+  <si>
+    <t>SUPERUSUARIO</t>
+  </si>
+  <si>
+    <t>8222-2223</t>
   </si>
 </sst>
 </file>
@@ -332,10 +431,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.3928571428571"/>
+    <col min="1" max="1" hidden="false" style="0" width="12.1479591836735" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="23.7602040816327" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="21.0612244897959" collapsed="true"/>
+    <col min="4" max="1025" hidden="false" style="0" width="10.3928571428571" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -358,124 +457,124 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>37</v>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -510,9 +609,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3928571428571"/>
+    <col min="1" max="1" hidden="false" style="0" width="10.3928571428571" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="25.515306122449" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="10.3928571428571" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -605,8 +704,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.3928571428571"/>
+    <col min="1" max="1" hidden="false" style="0" width="14.8469387755102" collapsed="true"/>
+    <col min="2" max="1025" hidden="false" style="0" width="10.3928571428571" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -648,9 +747,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.3928571428571"/>
+    <col min="1" max="4" hidden="false" style="0" width="10.3928571428571" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="14.4438775510204" collapsed="true"/>
+    <col min="6" max="1025" hidden="false" style="0" width="10.3928571428571" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosProyecto1.xlsx
+++ b/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosProyecto1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="PROFESORES" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -94,9 +94,6 @@
     <t xml:space="preserve">erew</t>
   </si>
   <si>
-    <t xml:space="preserve">ASISTENTE</t>
-  </si>
-  <si>
     <t xml:space="preserve">4-4444-4444</t>
   </si>
   <si>
@@ -227,105 +224,6 @@
   </si>
   <si>
     <t xml:space="preserve">B3-07</t>
-  </si>
-  <si>
-    <t>1-1111-1111</t>
-  </si>
-  <si>
-    <t>Ericka Solano Fernández</t>
-  </si>
-  <si>
-    <t>ersolano@itcr.ac.cr</t>
-  </si>
-  <si>
-    <t>8111-1111</t>
-  </si>
-  <si>
-    <t>masm</t>
-  </si>
-  <si>
-    <t>COORDINADOR</t>
-  </si>
-  <si>
-    <t>2-2222-2222</t>
-  </si>
-  <si>
-    <t>Alicia Salazar Hernández</t>
-  </si>
-  <si>
-    <t>asalazar@itcr.ac.cr</t>
-  </si>
-  <si>
-    <t>8222-2222</t>
-  </si>
-  <si>
-    <t>dfsdf</t>
-  </si>
-  <si>
-    <t>DIRECTOR</t>
-  </si>
-  <si>
-    <t>3-3333-3333</t>
-  </si>
-  <si>
-    <t>Saúl Calderón Ramírez</t>
-  </si>
-  <si>
-    <t>sacalderon@itcr.ac.cr</t>
-  </si>
-  <si>
-    <t>8333-3333</t>
-  </si>
-  <si>
-    <t>erew</t>
-  </si>
-  <si>
-    <t>ASISTENTE</t>
-  </si>
-  <si>
-    <t>4-4444-4444</t>
-  </si>
-  <si>
-    <t>Franco Quirós Ramírez</t>
-  </si>
-  <si>
-    <t>fquiros@itcr.ac.cr</t>
-  </si>
-  <si>
-    <t>8444-4444</t>
-  </si>
-  <si>
-    <t>qwkqe</t>
-  </si>
-  <si>
-    <t>5-5555-5555</t>
-  </si>
-  <si>
-    <t>Ivannia Cerdas Quesada</t>
-  </si>
-  <si>
-    <t>iquesada@itcr.ac.cr</t>
-  </si>
-  <si>
-    <t>8555-5555</t>
-  </si>
-  <si>
-    <t>qweqqqq</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>8666-6666</t>
-  </si>
-  <si>
-    <t>Disenno</t>
-  </si>
-  <si>
-    <t>SUPERUSUARIO</t>
-  </si>
-  <si>
-    <t>8222-2223</t>
   </si>
 </sst>
 </file>
@@ -335,7 +233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -358,6 +256,29 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -376,7 +297,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -400,21 +321,97 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -426,15 +423,15 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="12.1479591836735" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="23.7602040816327" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="21.0612244897959" collapsed="true"/>
-    <col min="4" max="1025" hidden="false" style="0" width="10.3928571428571" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -457,124 +454,124 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" t="s">
-        <v>99</v>
+    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -609,28 +606,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="10.3928571428571" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="25.515306122449" collapsed="true"/>
-    <col min="3" max="1025" hidden="false" style="0" width="10.3928571428571" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>3</v>
@@ -638,10 +635,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>44</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3</v>
@@ -649,10 +646,10 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>4</v>
@@ -660,10 +657,10 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>4</v>
@@ -671,10 +668,10 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>50</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>4</v>
@@ -704,23 +701,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="14.8469387755102" collapsed="true"/>
-    <col min="2" max="1025" hidden="false" style="0" width="10.3928571428571" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -747,77 +744,77 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" hidden="false" style="0" width="10.3928571428571" collapsed="true"/>
-    <col min="5" max="5" hidden="false" style="0" width="14.4438775510204" collapsed="true"/>
-    <col min="6" max="1025" hidden="false" style="0" width="10.3928571428571" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -826,38 +823,38 @@
         <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -866,18 +863,18 @@
         <v>12</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -886,18 +883,18 @@
         <v>6</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2</v>
@@ -906,10 +903,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosProyecto1.xlsx
+++ b/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosProyecto1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">erew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASISTENTE</t>
   </si>
   <si>
     <t xml:space="preserve">4-4444-4444</t>
@@ -423,14 +426,14 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -511,24 +514,24 @@
         <v>22</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>17</v>
@@ -536,19 +539,19 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>17</v>
@@ -556,22 +559,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -607,27 +610,27 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>3</v>
@@ -635,10 +638,10 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3</v>
@@ -646,10 +649,10 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>4</v>
@@ -657,10 +660,10 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>4</v>
@@ -668,10 +671,10 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>4</v>
@@ -701,23 +704,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -745,76 +748,76 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="4" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -823,38 +826,38 @@
         <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -863,18 +866,18 @@
         <v>12</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -883,18 +886,18 @@
         <v>6</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2</v>
@@ -903,10 +906,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosProyecto1.xlsx
+++ b/IIProyectoDiseno/build/web/WEB-INF/classes/files/DatosProyecto1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="101">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -227,6 +227,105 @@
   </si>
   <si>
     <t xml:space="preserve">B3-07</t>
+  </si>
+  <si>
+    <t>1-1111-1111</t>
+  </si>
+  <si>
+    <t>Ericka Solano Fernández</t>
+  </si>
+  <si>
+    <t>ersolano@itcr.ac.cr</t>
+  </si>
+  <si>
+    <t>8111-1111</t>
+  </si>
+  <si>
+    <t>masm</t>
+  </si>
+  <si>
+    <t>COORDINADOR</t>
+  </si>
+  <si>
+    <t>2-2222-2222</t>
+  </si>
+  <si>
+    <t>Alicia Salazar Hernández</t>
+  </si>
+  <si>
+    <t>asalazar@itcr.ac.cr</t>
+  </si>
+  <si>
+    <t>8222-2222</t>
+  </si>
+  <si>
+    <t>dfsdf</t>
+  </si>
+  <si>
+    <t>DIRECTOR</t>
+  </si>
+  <si>
+    <t>4-4444-4444</t>
+  </si>
+  <si>
+    <t>Franco Quirós Ramírez</t>
+  </si>
+  <si>
+    <t>fquiros@itcr.ac.cr</t>
+  </si>
+  <si>
+    <t>8444-4444</t>
+  </si>
+  <si>
+    <t>qwkqe</t>
+  </si>
+  <si>
+    <t>5-5555-5555</t>
+  </si>
+  <si>
+    <t>Ivannia Cerdas Quesada</t>
+  </si>
+  <si>
+    <t>iquesada@itcr.ac.cr</t>
+  </si>
+  <si>
+    <t>8555-5555</t>
+  </si>
+  <si>
+    <t>qweqqqq</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>8666-6666</t>
+  </si>
+  <si>
+    <t>Disenno</t>
+  </si>
+  <si>
+    <t>SUPERUSUARIO</t>
+  </si>
+  <si>
+    <t>1-1670-0598</t>
+  </si>
+  <si>
+    <t>Ariana B</t>
+  </si>
+  <si>
+    <t>b@h.com</t>
+  </si>
+  <si>
+    <t>22609987</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>2-2222-1111</t>
+  </si>
+  <si>
+    <t>Ericka Solano Fernánde</t>
   </si>
 </sst>
 </file>
@@ -431,10 +530,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
+    <col min="1" max="1" hidden="false" style="0" width="12.4251012145749" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="24.3157894736842" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="21.5303643724696" collapsed="true"/>
+    <col min="4" max="1025" hidden="false" style="0" width="10.6032388663968" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -457,124 +556,144 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>37</v>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -609,9 +728,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
+    <col min="1" max="1" hidden="false" style="0" width="10.6032388663968" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="26.0283400809717" collapsed="true"/>
+    <col min="3" max="1025" hidden="false" style="0" width="10.6032388663968" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -704,8 +823,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.6032388663968"/>
+    <col min="1" max="1" hidden="false" style="0" width="15.3198380566802" collapsed="true"/>
+    <col min="2" max="1025" hidden="false" style="0" width="10.6032388663968" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -747,9 +866,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6032388663968"/>
+    <col min="1" max="4" hidden="false" style="0" width="10.6032388663968" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="14.7813765182186" collapsed="true"/>
+    <col min="6" max="1025" hidden="false" style="0" width="10.6032388663968" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
